--- a/Original Files/PMH 10181025 - Manchester Memorial Hospital - ER ORIG.xlsx
+++ b/Original Files/PMH 10181025 - Manchester Memorial Hospital - ER ORIG.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ayahealthcare.sharepoint.com/sites/MSPCRInvoices/Shared Documents/Prospect Medical Holding/2024/05.02.24 (04.21.24 to 04.27.24) Prospect/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF6504C9-F5C7-4340-BF7D-CBD1196EE825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{875E0D97-F4FE-4D07-9E46-012F8D56E777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D0C3B8D6-4FCC-4622-AF19-FC4D35E096A4}"/>
+    <workbookView xWindow="-28920" yWindow="-1425" windowWidth="29040" windowHeight="15840" xr2:uid="{42BB6BEF-FE83-4ED6-9B7B-D02393965C95}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice_Summary" sheetId="1" r:id="rId1"/>
@@ -66,7 +61,7 @@
     <t>PO Box 674907</t>
   </si>
   <si>
-    <t>Dallas, TX 75267-4907</t>
+    <t>Dallas, TX 7526 - 4907</t>
   </si>
   <si>
     <t>PNC Bank. N.A</t>
@@ -203,7 +198,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -449,6 +444,9 @@
   </cellStyleXfs>
   <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -472,6 +470,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -480,6 +481,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -492,9 +496,20 @@
     <xf numFmtId="44" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -504,11 +519,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -528,26 +543,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -572,20 +567,20 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>134620</xdr:rowOff>
+      <xdr:rowOff>136525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1676400</xdr:colOff>
+      <xdr:colOff>1684020</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADCAD2CE-FBC3-2141-AC63-1A25817FCA10}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F94225F-3F7D-4663-79AF-A83342CF74DE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -631,39 +626,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -715,7 +710,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -826,13 +821,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -841,6 +829,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -905,364 +900,384 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D03B4C0-A3A0-4518-A4A7-F2C8496E3790}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F0848C-1FFD-4B21-BA5F-73170161563A}">
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.44140625" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="33"/>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="37"/>
+      <c r="A1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="45"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="31"/>
-      <c r="G2" s="6" t="s">
+      <c r="A2" s="39"/>
+      <c r="G2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="4">
         <v>10181025</v>
       </c>
-      <c r="K2" s="28"/>
+      <c r="K2" s="36"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="31"/>
-      <c r="G3" s="6" t="s">
+      <c r="A3" s="39"/>
+      <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="5">
         <v>45414</v>
       </c>
-      <c r="K3" s="28"/>
+      <c r="K3" s="36"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="31"/>
-      <c r="G4" s="6" t="s">
+      <c r="A4" s="39"/>
+      <c r="G4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="28"/>
+      <c r="K4" s="36"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="31"/>
-      <c r="G5" s="6" t="s">
+      <c r="A5" s="39"/>
+      <c r="G5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="28"/>
+      <c r="K5" s="36"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="31"/>
-      <c r="G6" s="6" t="s">
+      <c r="A6" s="39"/>
+      <c r="G6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="3">
         <v>45444</v>
       </c>
-      <c r="K6" s="28"/>
+      <c r="K6" s="36"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="31"/>
-      <c r="G7" s="6"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="28"/>
+      <c r="A7" s="39"/>
+      <c r="G7" s="7"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="36"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="31"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="28"/>
+      <c r="A8" s="39"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="36"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="31"/>
-      <c r="G9" s="7" t="s">
+      <c r="A9" s="39"/>
+      <c r="G9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="28"/>
+      <c r="K9" s="36"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="31"/>
-      <c r="J10" s="3" t="s">
+      <c r="A10" s="39"/>
+      <c r="J10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K10" s="28"/>
+      <c r="K10" s="36"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="31"/>
-      <c r="B11" s="8"/>
-      <c r="J11" s="3" t="s">
+      <c r="A11" s="39"/>
+      <c r="B11" s="9"/>
+      <c r="J11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="28"/>
+      <c r="K11" s="36"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="31"/>
-      <c r="B12" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="28"/>
+      <c r="A12" s="39"/>
+      <c r="B12" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" s="4"/>
+      <c r="K12" s="36"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="31"/>
-      <c r="B13" s="8" t="s">
+      <c r="A13" s="39"/>
+      <c r="B13" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="J13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K13" s="28"/>
+      <c r="K13" s="36"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="31"/>
-      <c r="B14" s="8" t="s">
+      <c r="A14" s="39"/>
+      <c r="B14" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="28"/>
+      <c r="K14" s="36"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="31"/>
-      <c r="B15" s="8" t="s">
+      <c r="A15" s="39"/>
+      <c r="B15" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K15" s="28"/>
+      <c r="K15" s="36"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="31"/>
-      <c r="B16" s="8"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="28"/>
+      <c r="A16" s="39"/>
+      <c r="B16" s="9"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="36"/>
     </row>
     <row r="17" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="31"/>
-      <c r="B17" s="38" t="s">
+      <c r="A17" s="39"/>
+      <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="28"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="36"/>
     </row>
     <row r="18" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="31"/>
-      <c r="K18" s="28"/>
+      <c r="A18" s="39"/>
+      <c r="K18" s="36"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="31"/>
-      <c r="C19" s="39" t="s">
+      <c r="A19" s="39"/>
+      <c r="C19" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="39"/>
-      <c r="E19" s="12" t="s">
+      <c r="D19" s="10"/>
+      <c r="E19" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="K19" s="28"/>
+      <c r="K19" s="36"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="31"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="13">
+      <c r="A20" s="39"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="16">
         <v>198.22</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F20" s="18">
         <v>18876.03</v>
       </c>
-      <c r="K20" s="28"/>
+      <c r="K20" s="36"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="31"/>
-      <c r="K21" s="28"/>
+      <c r="A21" s="39"/>
+      <c r="K21" s="36"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="31"/>
-      <c r="C22" s="9" t="s">
+      <c r="A22" s="39"/>
+      <c r="C22" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="F22" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I22" s="43" t="s">
+      <c r="I22" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="J22" s="44"/>
-      <c r="K22" s="28"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="36"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="31"/>
-      <c r="C23" s="11" t="s">
+      <c r="A23" s="39"/>
+      <c r="C23" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="16">
         <v>198.22</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F23" s="18">
         <v>18876.03</v>
       </c>
-      <c r="I23" s="45">
+      <c r="I23" s="26">
         <v>18876.03</v>
       </c>
-      <c r="J23" s="44"/>
-      <c r="K23" s="28"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="36"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="31"/>
-      <c r="C24" s="41" t="s">
+      <c r="A24" s="39"/>
+      <c r="C24" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="42"/>
-      <c r="E24" s="16">
+      <c r="D24" s="20"/>
+      <c r="E24" s="21">
         <v>198.22</v>
       </c>
-      <c r="F24" s="17">
+      <c r="F24" s="22">
         <v>18876.03</v>
       </c>
-      <c r="I24" s="9" t="s">
+      <c r="I24" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="J24" s="19">
+      <c r="J24" s="27">
         <v>1198.6279</v>
       </c>
-      <c r="K24" s="28"/>
+      <c r="K24" s="36"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="31"/>
-      <c r="I25" s="9" t="s">
+      <c r="A25" s="39"/>
+      <c r="I25" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="J25" s="19">
+      <c r="J25" s="27">
         <v>20074.657899999998</v>
       </c>
-      <c r="K25" s="28"/>
+      <c r="K25" s="36"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="31"/>
-      <c r="D26" s="9" t="s">
+      <c r="A26" s="39"/>
+      <c r="D26" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F26" s="14" t="s">
+      <c r="F26" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="K26" s="28"/>
+      <c r="K26" s="36"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="31"/>
-      <c r="D27" s="11" t="s">
+      <c r="A27" s="39"/>
+      <c r="D27" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E27" s="16">
         <v>197.27</v>
       </c>
-      <c r="F27" s="15">
+      <c r="F27" s="18">
         <v>18740.650000000001</v>
       </c>
-      <c r="K27" s="28"/>
+      <c r="K27" s="36"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="31"/>
-      <c r="D28" s="11" t="s">
+      <c r="A28" s="39"/>
+      <c r="D28" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E28" s="16">
         <v>0.95</v>
       </c>
-      <c r="F28" s="15">
+      <c r="F28" s="18">
         <v>135.38</v>
       </c>
-      <c r="K28" s="28"/>
+      <c r="K28" s="36"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="31"/>
-      <c r="D29" s="18" t="s">
+      <c r="A29" s="39"/>
+      <c r="D29" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="16">
+      <c r="E29" s="21">
         <v>198.22</v>
       </c>
-      <c r="F29" s="17">
+      <c r="F29" s="22">
         <v>18876.030000000002</v>
       </c>
-      <c r="K29" s="28"/>
+      <c r="K29" s="36"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="31"/>
-      <c r="K30" s="28"/>
+      <c r="A30" s="39"/>
+      <c r="K30" s="36"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="32"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="30"/>
+      <c r="A31" s="40"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1279,7 +1294,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42D334EB-2413-4D31-9F8B-B4D0486CEDB1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFC96252-D12A-4187-8E9A-8BD421C4822C}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1289,1317 +1304,1041 @@
     <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="21.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="N1" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="O1" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="P1" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="Q1" s="28" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="22">
+      <c r="F2" s="30">
         <v>45396</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="23">
+      <c r="H2" s="31">
         <v>12.01</v>
       </c>
-      <c r="I2" s="23">
-        <v>0</v>
-      </c>
-      <c r="J2" s="23">
-        <v>0</v>
-      </c>
-      <c r="K2" s="23">
+      <c r="I2" s="31">
+        <v>0</v>
+      </c>
+      <c r="J2" s="31">
+        <v>0</v>
+      </c>
+      <c r="K2" s="31">
         <v>12.01</v>
       </c>
-      <c r="L2" s="21">
+      <c r="L2" s="29">
         <v>95</v>
       </c>
-      <c r="M2" s="21">
+      <c r="M2" s="29">
         <v>1140.95</v>
       </c>
-      <c r="N2" s="27">
+      <c r="N2" s="35">
         <v>72.450299999999999</v>
       </c>
-      <c r="O2" s="21">
+      <c r="O2" s="29">
         <v>1213.4003</v>
       </c>
-      <c r="P2" s="24">
+      <c r="P2" s="32">
         <v>10181025</v>
       </c>
-      <c r="Q2" s="26" t="s">
+      <c r="Q2" s="34" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F3" s="30">
         <v>45399</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="23">
+      <c r="H3" s="31">
         <v>12.6</v>
       </c>
-      <c r="I3" s="23">
-        <v>0</v>
-      </c>
-      <c r="J3" s="23">
-        <v>0</v>
-      </c>
-      <c r="K3" s="23">
+      <c r="I3" s="31">
+        <v>0</v>
+      </c>
+      <c r="J3" s="31">
+        <v>0</v>
+      </c>
+      <c r="K3" s="31">
         <v>12.6</v>
       </c>
-      <c r="L3" s="21">
+      <c r="L3" s="29">
         <v>95</v>
       </c>
-      <c r="M3" s="21">
+      <c r="M3" s="29">
         <v>1197</v>
       </c>
-      <c r="N3" s="27">
+      <c r="N3" s="35">
         <v>76.009500000000003</v>
       </c>
-      <c r="O3" s="21">
+      <c r="O3" s="29">
         <v>1273.0094999999999</v>
       </c>
-      <c r="P3" s="24">
+      <c r="P3" s="32">
         <v>10181025</v>
       </c>
-      <c r="Q3" s="26" t="s">
+      <c r="Q3" s="34" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="30">
         <v>45400</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="23">
+      <c r="H4" s="31">
         <v>11.92</v>
       </c>
-      <c r="I4" s="23">
-        <v>0</v>
-      </c>
-      <c r="J4" s="23">
-        <v>0</v>
-      </c>
-      <c r="K4" s="23">
+      <c r="I4" s="31">
+        <v>0</v>
+      </c>
+      <c r="J4" s="31">
+        <v>0</v>
+      </c>
+      <c r="K4" s="31">
         <v>11.92</v>
       </c>
-      <c r="L4" s="21">
+      <c r="L4" s="29">
         <v>95</v>
       </c>
-      <c r="M4" s="21">
+      <c r="M4" s="29">
         <v>1132.4000000000001</v>
       </c>
-      <c r="N4" s="27">
+      <c r="N4" s="35">
         <v>71.907399999999996</v>
       </c>
-      <c r="O4" s="21">
+      <c r="O4" s="29">
         <v>1204.3073999999999</v>
       </c>
-      <c r="P4" s="24">
+      <c r="P4" s="32">
         <v>10181025</v>
       </c>
-      <c r="Q4" s="26" t="s">
+      <c r="Q4" s="34" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="30">
         <v>45404</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="31">
         <v>12.65</v>
       </c>
-      <c r="I5" s="23">
-        <v>0</v>
-      </c>
-      <c r="J5" s="23">
-        <v>0</v>
-      </c>
-      <c r="K5" s="23">
+      <c r="I5" s="31">
+        <v>0</v>
+      </c>
+      <c r="J5" s="31">
+        <v>0</v>
+      </c>
+      <c r="K5" s="31">
         <v>12.65</v>
       </c>
-      <c r="L5" s="21">
+      <c r="L5" s="29">
         <v>95</v>
       </c>
-      <c r="M5" s="21">
+      <c r="M5" s="29">
         <v>1201.75</v>
       </c>
-      <c r="N5" s="27">
+      <c r="N5" s="35">
         <v>76.311099999999996</v>
       </c>
-      <c r="O5" s="21">
+      <c r="O5" s="29">
         <v>1278.0610999999999</v>
       </c>
-      <c r="P5" s="24">
+      <c r="P5" s="32">
         <v>10181025</v>
       </c>
-      <c r="Q5" s="26" t="s">
+      <c r="Q5" s="34" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="30">
         <v>45408</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="31">
         <v>12.45</v>
       </c>
-      <c r="I6" s="23">
-        <v>0</v>
-      </c>
-      <c r="J6" s="23">
-        <v>0</v>
-      </c>
-      <c r="K6" s="23">
+      <c r="I6" s="31">
+        <v>0</v>
+      </c>
+      <c r="J6" s="31">
+        <v>0</v>
+      </c>
+      <c r="K6" s="31">
         <v>12.45</v>
       </c>
-      <c r="L6" s="21">
+      <c r="L6" s="29">
         <v>95</v>
       </c>
-      <c r="M6" s="21">
+      <c r="M6" s="29">
         <v>1182.75</v>
       </c>
-      <c r="N6" s="27">
+      <c r="N6" s="35">
         <v>75.104600000000005</v>
       </c>
-      <c r="O6" s="21">
+      <c r="O6" s="29">
         <v>1257.8545999999999</v>
       </c>
-      <c r="P6" s="24">
+      <c r="P6" s="32">
         <v>10181025</v>
       </c>
-      <c r="Q6" s="26" t="s">
+      <c r="Q6" s="34" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="30">
         <v>45409</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="G7" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="31">
         <v>12.6</v>
       </c>
-      <c r="I7" s="23">
-        <v>0</v>
-      </c>
-      <c r="J7" s="23">
-        <v>0</v>
-      </c>
-      <c r="K7" s="23">
+      <c r="I7" s="31">
+        <v>0</v>
+      </c>
+      <c r="J7" s="31">
+        <v>0</v>
+      </c>
+      <c r="K7" s="31">
         <v>12.6</v>
       </c>
-      <c r="L7" s="21">
+      <c r="L7" s="29">
         <v>95</v>
       </c>
-      <c r="M7" s="21">
+      <c r="M7" s="29">
         <v>1197</v>
       </c>
-      <c r="N7" s="27">
+      <c r="N7" s="35">
         <v>76.009500000000003</v>
       </c>
-      <c r="O7" s="21">
+      <c r="O7" s="29">
         <v>1273.0094999999999</v>
       </c>
-      <c r="P7" s="24">
+      <c r="P7" s="32">
         <v>10181025</v>
       </c>
-      <c r="Q7" s="26" t="s">
+      <c r="Q7" s="34" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="30">
         <v>45399</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="31">
         <v>1.27</v>
       </c>
-      <c r="I8" s="23">
-        <v>0</v>
-      </c>
-      <c r="J8" s="23">
-        <v>0</v>
-      </c>
-      <c r="K8" s="23">
+      <c r="I8" s="31">
+        <v>0</v>
+      </c>
+      <c r="J8" s="31">
+        <v>0</v>
+      </c>
+      <c r="K8" s="31">
         <v>1.27</v>
       </c>
-      <c r="L8" s="21">
+      <c r="L8" s="29">
         <v>95</v>
       </c>
-      <c r="M8" s="21">
+      <c r="M8" s="29">
         <v>120.65</v>
       </c>
-      <c r="N8" s="27">
+      <c r="N8" s="35">
         <v>7.6612999999999998</v>
       </c>
-      <c r="O8" s="21">
+      <c r="O8" s="29">
         <v>128.31129999999999</v>
       </c>
-      <c r="P8" s="24">
+      <c r="P8" s="32">
         <v>10181025</v>
       </c>
-      <c r="Q8" s="26" t="s">
+      <c r="Q8" s="34" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="30">
         <v>45400</v>
       </c>
-      <c r="G9" s="26" t="s">
+      <c r="G9" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="23">
+      <c r="H9" s="31">
         <v>12.15</v>
       </c>
-      <c r="I9" s="23">
-        <v>0</v>
-      </c>
-      <c r="J9" s="23">
-        <v>0</v>
-      </c>
-      <c r="K9" s="23">
+      <c r="I9" s="31">
+        <v>0</v>
+      </c>
+      <c r="J9" s="31">
+        <v>0</v>
+      </c>
+      <c r="K9" s="31">
         <v>12.15</v>
       </c>
-      <c r="L9" s="21">
+      <c r="L9" s="29">
         <v>95</v>
       </c>
-      <c r="M9" s="21">
+      <c r="M9" s="29">
         <v>1154.25</v>
       </c>
-      <c r="N9" s="27">
+      <c r="N9" s="35">
         <v>73.294899999999998</v>
       </c>
-      <c r="O9" s="21">
+      <c r="O9" s="29">
         <v>1227.5449000000001</v>
       </c>
-      <c r="P9" s="24">
+      <c r="P9" s="32">
         <v>10181025</v>
       </c>
-      <c r="Q9" s="26" t="s">
+      <c r="Q9" s="34" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="30">
         <v>45401</v>
       </c>
-      <c r="G10" s="26" t="s">
+      <c r="G10" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="23">
+      <c r="H10" s="31">
         <v>11.7</v>
       </c>
-      <c r="I10" s="23">
-        <v>0</v>
-      </c>
-      <c r="J10" s="23">
-        <v>0</v>
-      </c>
-      <c r="K10" s="23">
+      <c r="I10" s="31">
+        <v>0</v>
+      </c>
+      <c r="J10" s="31">
+        <v>0</v>
+      </c>
+      <c r="K10" s="31">
         <v>11.7</v>
       </c>
-      <c r="L10" s="21">
+      <c r="L10" s="29">
         <v>95</v>
       </c>
-      <c r="M10" s="21">
+      <c r="M10" s="29">
         <v>1111.5</v>
       </c>
-      <c r="N10" s="27">
+      <c r="N10" s="35">
         <v>70.580299999999994</v>
       </c>
-      <c r="O10" s="21">
+      <c r="O10" s="29">
         <v>1182.0803000000001</v>
       </c>
-      <c r="P10" s="24">
+      <c r="P10" s="32">
         <v>10181025</v>
       </c>
-      <c r="Q10" s="26" t="s">
+      <c r="Q10" s="34" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="30">
         <v>45402</v>
       </c>
-      <c r="G11" s="26" t="s">
+      <c r="G11" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H11" s="31">
         <v>12.92</v>
       </c>
-      <c r="I11" s="23">
-        <v>0</v>
-      </c>
-      <c r="J11" s="23">
-        <v>0</v>
-      </c>
-      <c r="K11" s="23">
+      <c r="I11" s="31">
+        <v>0</v>
+      </c>
+      <c r="J11" s="31">
+        <v>0</v>
+      </c>
+      <c r="K11" s="31">
         <v>12.92</v>
       </c>
-      <c r="L11" s="21">
+      <c r="L11" s="29">
         <v>95</v>
       </c>
-      <c r="M11" s="21">
+      <c r="M11" s="29">
         <v>1227.4000000000001</v>
       </c>
-      <c r="N11" s="27">
+      <c r="N11" s="35">
         <v>77.939899999999994</v>
       </c>
-      <c r="O11" s="21">
+      <c r="O11" s="29">
         <v>1305.3398999999999</v>
       </c>
-      <c r="P11" s="24">
+      <c r="P11" s="32">
         <v>10181025</v>
       </c>
-      <c r="Q11" s="26" t="s">
+      <c r="Q11" s="34" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="30">
         <v>45404</v>
       </c>
-      <c r="G12" s="26" t="s">
+      <c r="G12" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="31">
         <v>12.53</v>
       </c>
-      <c r="I12" s="23">
-        <v>0</v>
-      </c>
-      <c r="J12" s="23">
-        <v>0</v>
-      </c>
-      <c r="K12" s="23">
+      <c r="I12" s="31">
+        <v>0</v>
+      </c>
+      <c r="J12" s="31">
+        <v>0</v>
+      </c>
+      <c r="K12" s="31">
         <v>12.53</v>
       </c>
-      <c r="L12" s="21">
+      <c r="L12" s="29">
         <v>95</v>
       </c>
-      <c r="M12" s="21">
+      <c r="M12" s="29">
         <v>1190.3499999999999</v>
       </c>
-      <c r="N12" s="27">
+      <c r="N12" s="35">
         <v>75.587199999999996</v>
       </c>
-      <c r="O12" s="21">
+      <c r="O12" s="29">
         <v>1265.9372000000001</v>
       </c>
-      <c r="P12" s="24">
+      <c r="P12" s="32">
         <v>10181025</v>
       </c>
-      <c r="Q12" s="26" t="s">
+      <c r="Q12" s="34" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F13" s="30">
         <v>45405</v>
       </c>
-      <c r="G13" s="26" t="s">
+      <c r="G13" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="23">
+      <c r="H13" s="31">
         <v>11.63</v>
       </c>
-      <c r="I13" s="23">
-        <v>0</v>
-      </c>
-      <c r="J13" s="23">
-        <v>0</v>
-      </c>
-      <c r="K13" s="23">
+      <c r="I13" s="31">
+        <v>0</v>
+      </c>
+      <c r="J13" s="31">
+        <v>0</v>
+      </c>
+      <c r="K13" s="31">
         <v>11.63</v>
       </c>
-      <c r="L13" s="21">
+      <c r="L13" s="29">
         <v>95</v>
       </c>
-      <c r="M13" s="21">
+      <c r="M13" s="29">
         <v>1104.8499999999999</v>
       </c>
-      <c r="N13" s="27">
+      <c r="N13" s="35">
         <v>70.158000000000001</v>
       </c>
-      <c r="O13" s="21">
+      <c r="O13" s="29">
         <v>1175.008</v>
       </c>
-      <c r="P13" s="24">
+      <c r="P13" s="32">
         <v>10181025</v>
       </c>
-      <c r="Q13" s="26" t="s">
+      <c r="Q13" s="34" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F14" s="30">
         <v>45406</v>
       </c>
-      <c r="G14" s="26" t="s">
+      <c r="G14" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="23">
+      <c r="H14" s="31">
         <v>11.8</v>
       </c>
-      <c r="I14" s="23">
-        <v>0</v>
-      </c>
-      <c r="J14" s="23">
-        <v>0</v>
-      </c>
-      <c r="K14" s="23">
+      <c r="I14" s="31">
+        <v>0</v>
+      </c>
+      <c r="J14" s="31">
+        <v>0</v>
+      </c>
+      <c r="K14" s="31">
         <v>11.8</v>
       </c>
-      <c r="L14" s="21">
+      <c r="L14" s="29">
         <v>95</v>
       </c>
-      <c r="M14" s="21">
+      <c r="M14" s="29">
         <v>1121</v>
       </c>
-      <c r="N14" s="27">
+      <c r="N14" s="35">
         <v>71.183499999999995</v>
       </c>
-      <c r="O14" s="21">
+      <c r="O14" s="29">
         <v>1192.1835000000001</v>
       </c>
-      <c r="P14" s="24">
+      <c r="P14" s="32">
         <v>10181025</v>
       </c>
-      <c r="Q14" s="26" t="s">
+      <c r="Q14" s="34" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F15" s="30">
         <v>45407</v>
       </c>
-      <c r="G15" s="26" t="s">
+      <c r="G15" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="23">
-        <v>0</v>
-      </c>
-      <c r="I15" s="23">
+      <c r="H15" s="31">
+        <v>0</v>
+      </c>
+      <c r="I15" s="31">
         <v>0.95</v>
       </c>
-      <c r="J15" s="23">
-        <v>0</v>
-      </c>
-      <c r="K15" s="23">
+      <c r="J15" s="31">
+        <v>0</v>
+      </c>
+      <c r="K15" s="31">
         <v>0.95</v>
       </c>
-      <c r="L15" s="21">
+      <c r="L15" s="29">
         <v>142.5</v>
       </c>
-      <c r="M15" s="21">
+      <c r="M15" s="29">
         <v>135.38</v>
       </c>
-      <c r="N15" s="27">
+      <c r="N15" s="35">
         <v>8.5966000000000005</v>
       </c>
-      <c r="O15" s="21">
+      <c r="O15" s="29">
         <v>143.97659999999999</v>
       </c>
-      <c r="P15" s="24">
+      <c r="P15" s="32">
         <v>10181025</v>
       </c>
-      <c r="Q15" s="26" t="s">
+      <c r="Q15" s="34" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F16" s="30">
         <v>45407</v>
       </c>
-      <c r="G16" s="26" t="s">
+      <c r="G16" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="H16" s="23">
+      <c r="H16" s="31">
         <v>12.04</v>
       </c>
-      <c r="I16" s="23">
-        <v>0</v>
-      </c>
-      <c r="J16" s="23">
-        <v>0</v>
-      </c>
-      <c r="K16" s="23">
+      <c r="I16" s="31">
+        <v>0</v>
+      </c>
+      <c r="J16" s="31">
+        <v>0</v>
+      </c>
+      <c r="K16" s="31">
         <v>12.04</v>
       </c>
-      <c r="L16" s="21">
+      <c r="L16" s="29">
         <v>95</v>
       </c>
-      <c r="M16" s="21">
+      <c r="M16" s="29">
         <v>1143.8</v>
       </c>
-      <c r="N16" s="27">
+      <c r="N16" s="35">
         <v>72.631299999999996</v>
       </c>
-      <c r="O16" s="21">
+      <c r="O16" s="29">
         <v>1216.4313</v>
       </c>
-      <c r="P16" s="24">
+      <c r="P16" s="32">
         <v>10181025</v>
       </c>
-      <c r="Q16" s="26" t="s">
+      <c r="Q16" s="34" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="22">
+      <c r="F17" s="30">
         <v>45403</v>
       </c>
-      <c r="G17" s="26" t="s">
+      <c r="G17" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="H17" s="23">
+      <c r="H17" s="31">
         <v>12.5</v>
       </c>
-      <c r="I17" s="23">
-        <v>0</v>
-      </c>
-      <c r="J17" s="23">
-        <v>0</v>
-      </c>
-      <c r="K17" s="23">
+      <c r="I17" s="31">
+        <v>0</v>
+      </c>
+      <c r="J17" s="31">
+        <v>0</v>
+      </c>
+      <c r="K17" s="31">
         <v>12.5</v>
       </c>
-      <c r="L17" s="21">
+      <c r="L17" s="29">
         <v>95</v>
       </c>
-      <c r="M17" s="21">
+      <c r="M17" s="29">
         <v>1187.5</v>
       </c>
-      <c r="N17" s="27">
+      <c r="N17" s="35">
         <v>75.406300000000002</v>
       </c>
-      <c r="O17" s="21">
+      <c r="O17" s="29">
         <v>1262.9063000000001</v>
       </c>
-      <c r="P17" s="24">
+      <c r="P17" s="32">
         <v>10181025</v>
       </c>
-      <c r="Q17" s="26" t="s">
+      <c r="Q17" s="34" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="22">
+      <c r="F18" s="30">
         <v>45406</v>
       </c>
-      <c r="G18" s="26" t="s">
+      <c r="G18" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="H18" s="23">
+      <c r="H18" s="31">
         <v>12.25</v>
       </c>
-      <c r="I18" s="23">
-        <v>0</v>
-      </c>
-      <c r="J18" s="23">
-        <v>0</v>
-      </c>
-      <c r="K18" s="23">
+      <c r="I18" s="31">
+        <v>0</v>
+      </c>
+      <c r="J18" s="31">
+        <v>0</v>
+      </c>
+      <c r="K18" s="31">
         <v>12.25</v>
       </c>
-      <c r="L18" s="21">
+      <c r="L18" s="29">
         <v>95</v>
       </c>
-      <c r="M18" s="21">
+      <c r="M18" s="29">
         <v>1163.75</v>
       </c>
-      <c r="N18" s="27">
+      <c r="N18" s="35">
         <v>73.898099999999999</v>
       </c>
-      <c r="O18" s="21">
+      <c r="O18" s="29">
         <v>1237.6481000000001</v>
       </c>
-      <c r="P18" s="24">
+      <c r="P18" s="32">
         <v>10181025</v>
       </c>
-      <c r="Q18" s="26" t="s">
+      <c r="Q18" s="34" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="22">
+      <c r="F19" s="30">
         <v>45407</v>
       </c>
-      <c r="G19" s="26" t="s">
+      <c r="G19" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="H19" s="23">
+      <c r="H19" s="31">
         <v>12.25</v>
       </c>
-      <c r="I19" s="23">
-        <v>0</v>
-      </c>
-      <c r="J19" s="23">
-        <v>0</v>
-      </c>
-      <c r="K19" s="23">
+      <c r="I19" s="31">
+        <v>0</v>
+      </c>
+      <c r="J19" s="31">
+        <v>0</v>
+      </c>
+      <c r="K19" s="31">
         <v>12.25</v>
       </c>
-      <c r="L19" s="21">
+      <c r="L19" s="29">
         <v>95</v>
       </c>
-      <c r="M19" s="21">
+      <c r="M19" s="29">
         <v>1163.75</v>
       </c>
-      <c r="N19" s="27">
+      <c r="N19" s="35">
         <v>73.898099999999999</v>
       </c>
-      <c r="O19" s="21">
+      <c r="O19" s="29">
         <v>1237.6481000000001</v>
       </c>
-      <c r="P19" s="24">
+      <c r="P19" s="32">
         <v>10181025</v>
       </c>
-      <c r="Q19" s="26" t="s">
+      <c r="Q19" s="34" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="M20" s="25">
+      <c r="M20" s="33">
         <v>18876.03</v>
       </c>
-      <c r="N20" s="25">
+      <c r="N20" s="33">
         <v>1198.6279</v>
       </c>
-      <c r="O20" s="25">
+      <c r="O20" s="33">
         <v>20074.657899999998</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008A7B740158B06348BBFDD0A82FAE521C" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b9ca6de6a992593ec3295afdb73980d5">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="45be6600-ce97-4f91-b2b5-90c5c801df6a" xmlns:ns3="4ff60255-49bc-4e52-8060-8afe9711eecb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3c3625fcdb5b97911e04df756c65f947" ns2:_="" ns3:_="">
-    <xsd:import namespace="45be6600-ce97-4f91-b2b5-90c5c801df6a"/>
-    <xsd:import namespace="4ff60255-49bc-4e52-8060-8afe9711eecb"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="45be6600-ce97-4f91-b2b5-90c5c801df6a" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="18" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="21" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="94b3629e-20aa-442c-aac2-3c67759175e0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="23" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="24" nillable="true" ma:displayName="Location" ma:description="" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="4ff60255-49bc-4e52-8060-8afe9711eecb" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="16" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="17" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="22" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{6c69ecb4-97a0-434f-9afd-668c5bcfe455}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="4ff60255-49bc-4e52-8060-8afe9711eecb">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B5CDC5C-5633-42D5-87CB-14AAFA3B5949}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C427762-A2D1-4641-BB0A-A1AE2F363773}"/>
 </file>